--- a/sesion6/parte1_pl6.xlsx
+++ b/sesion6/parte1_pl6.xlsx
@@ -1,34 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UO278499\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/uo282978_uniovi_es/Documents/CESPL/Sesion6/CESPL-main (4)/CESPL-main/sesion6/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="37" documentId="11_962770CC4E6ECEA7D2E2CBEF2854D70AAEB21EFD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54151600-0928-4920-854C-25744C51B10B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
     <definedName name="JSIMresults" localSheetId="0">Hoja1!$A$1:$J$21</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="JSIMresults" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="JSIMresults" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\UO278499\Downloads\JSIMresults.tsv">
       <textFields count="9">
         <textField/>
@@ -47,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">Number of customers </t>
   </si>
@@ -75,11 +90,32 @@
   <si>
     <t>Tpo. Respuesta</t>
   </si>
+  <si>
+    <t>Usuarios</t>
+  </si>
+  <si>
+    <t>TRES</t>
+  </si>
+  <si>
+    <t>Productividad</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>DISCO</t>
+  </si>
+  <si>
+    <t>SYSTEM_RESPONSE_TIME - Z</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,7 +180,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -543,7 +578,4450 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Comparación tiempo respuesta</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30134711286089239"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TRES MODELO</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Tarea 1'!$F$50:$F$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Tarea 1'!$G$50:$G$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.9295385666573254E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5168137130336631E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7049712464856257E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10667130488657316</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22264695891933239</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48990244331366567</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80242507332948154</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1021221585212555</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4018192570181873</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7145466641454572</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0142437626424274</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3269711697697071</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6266682682666773</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9263653667636471</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2390927738909174</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5387898723878872</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8515172795151673</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.1512143780121376</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.4639417851394176</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.7636388836363874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-514D-4D5A-9E8F-EB42C0A2C219}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>TRES NORMAL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Tarea 1'!$A$25:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Tarea 1'!$B$25:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.10859946091469597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1143988204977955</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10149453374765294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13882974227258382</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1671917554775951</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80928529340727451</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7713611457668625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.352322377280339</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9665256325270848</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2729402076329315</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-514D-4D5A-9E8F-EB42C0A2C219}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>TRES JSIM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.1020037557787056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55123354200919483</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0228114613719317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4027356840660663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4894554776561781</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4968618295769289</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4942887086149415</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4977045546517733</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4931715849122171</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4989462268581122</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4987207535328351</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4962851093675127</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4989457730762499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4985668251602089</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4982554700582449</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5059192357941049</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5050391762187991</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5049779337227998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5016828210057167</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4941639354839333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-514D-4D5A-9E8F-EB42C0A2C219}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="629393632"/>
+        <c:axId val="629399872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="629393632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="450"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Nº</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> Usuarios</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44727646544181976"/>
+              <c:y val="0.80460629921259841"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="629399872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="629399872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Tiempo de Respuesta</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> (seg)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="629393632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25386832895888012"/>
+          <c:y val="0.88946704578594338"/>
+          <c:w val="0.7192466084261685"/>
+          <c:h val="7.7614258071735817E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Tarea 1'!$H$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Tarea 1'!$F$50:$F$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Tarea 1'!$H$50:$H$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.6199260306771999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.312960766937998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.565627143890993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.989176034528498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.531737074721505</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.987119309266248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.999999300617247</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.999999999997996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.999999999999744</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99.999999999999744</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6CA1-4D8E-B723-4E462B5F2F70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>%CPU NORMAL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Tarea 1'!$A$25:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Tarea 1'!$E$25:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.6673264579999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.65952377</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.762663889999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.841179440000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.978118670000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.166400749999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.082994479999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81.482637650000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81.057400849999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81.150752580000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6CA1-4D8E-B723-4E462B5F2F70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>CPU JSIM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$45:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$E$45:$E$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>6.8168977452359103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.633266674555301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.568099396629407</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.510836916821503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.959164419734108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6CA1-4D8E-B723-4E462B5F2F70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="638406624"/>
+        <c:axId val="638407040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="638406624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="450"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Nº Usuarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="638407040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="638407040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Usabilidad %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="638406624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Tarea 1'!$I$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%DISCO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Tarea 1'!$F$50:$F$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Tarea 1'!$I$50:$I$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.76002654119144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.378245608264901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.271307826862003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.774949738544798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.899239503389005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.105113050321904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.1114385994101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.111438942886096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.111438942886998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49.111438942886998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49.111438942886998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49.111438942886998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49.111438942886998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49.111438942886998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49.111438942886998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49.111438942886998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49.111438942886998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49.111438942886998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49.111438942886998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>49.111438942886998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8D83-47F5-8B0B-171B9C6129B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>%DISCO NORMAL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Tarea 1'!$A$25:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Tarea 1'!$F$25:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>3.9825584900000024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.137876840000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.088996690000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.342982789999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.695387600000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.929952459999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.976195309999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.100367050000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.059684300000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.078192989999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8D83-47F5-8B0B-171B9C6129B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>%DISCO JSIM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$45:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$G$45:$G$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.3727598827969101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.4312829366309</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.606123752757597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.613146176876604</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.830514391298799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.527154646448302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.271794763146595</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.614974789113703</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.161061313761799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49.738899251245002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49.717835416368999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49.4729224277092</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49.7363585473284</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49.699585147199599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49.6680663700024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50.433966354531698</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50.346322892327002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.3425071760199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50.008820559693802</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>49.259824437292899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8D83-47F5-8B0B-171B9C6129B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="638406624"/>
+        <c:axId val="638407040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="638406624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="450"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Nº Usuarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="638407040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="638407040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Usabilidad %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="638406624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Tarea 1'!$J$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%RED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Tarea 1'!$F$50:$F$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Tarea 1'!$J$50:$J$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.07568788370789E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9934903619998495E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11018409726162801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15501818866703099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18668165252634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19138140285250801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19140605593613</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19140605727478699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19140605727479101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19140605727479101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19140605727479101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19140605727479101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.19140605727479101</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.19140605727479101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19140605727479101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.19140605727479101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.19140605727479101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.19140605727479101</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19140605727479101</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19140605727479101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-20DF-41B7-83AD-733D74F18990}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>%RED NORMAL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Tarea 1'!$A$25:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Tarea 1'!$G$25:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.7921750000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9278158000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0033702999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.116149269</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.150979892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21044406500000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.206448618</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21062710400000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21034565</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20700538800000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-20DF-41B7-83AD-733D74F18990}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>%RED JSIM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$45:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$F$45:$F$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.07179498377394E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8804589733284805E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.106922987806169</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.149585312908532</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15586895458490899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.159028311244582</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15707609834754299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15548067606364599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.156097177459913</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15572343456622201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15423993691451099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.155588509042074</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.158218760296574</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15709736882131101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15748063582208199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.157957224878781</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.15759472955291401</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.15528619626009199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.15946154087785899</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.156569111100435</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-20DF-41B7-83AD-733D74F18990}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="638406624"/>
+        <c:axId val="638407040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="638406624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="450"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Nº Usuarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="638407040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="638407040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.22000000000000003"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Usabilidad %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="638406624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Comparación productividad</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PRODUCTIVIDAD MODELO</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Tarea 1'!$F$50:$F$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Tarea 1'!$K$50:$K$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4.3129646350874502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.030866539965999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.178253007773897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.154457221513098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.849905586966102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.734267887360502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.744152527637596</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.744153064371503</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.744153064372895</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.744153064372895</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76.744153064372895</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>76.744153064372895</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76.744153064372895</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>76.744153064372895</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>76.744153064372895</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76.744153064372895</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76.744153064372895</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>76.744153064372895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>76.744153064372895</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76.744153064372895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0314-4CC7-976C-0F6775BA2A59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>PRODUCTIVIDAD NORMAL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Tarea 1'!$A$25:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Tarea 1'!$D$25:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.9466666666666668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.876666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.923333333333332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.876666666666665</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.326666666666668</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.913333333333327</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82.543333333333337</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0314-4CC7-976C-0F6775BA2A59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>PRODUCTIVIDAD JSIM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$45:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$D$45:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4.2745535469798499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.693511355532198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.7231036142649</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.090738400185998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.927575354862299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.322010638607402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.3792686161487</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.188474054148102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.390367711834102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61.990866665084503</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62.388307272250799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63.017438118166197</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63.472584245716099</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63.166250938498102</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>62.6818536752914</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>62.647683687931199</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62.846939805481902</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>62.216483903426699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>63.1499440221844</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>63.007300928121197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0314-4CC7-976C-0F6775BA2A59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="982280816"/>
+        <c:axId val="982277488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="982280816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Nº Usuarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="982277488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="982277488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Productividad</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="982280816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1099,6 +5577,2586 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1116,7 +8174,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1131,11 +8195,836 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>536526</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>46646</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C6963D-590F-46F2-BC09-E24DFC979A2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>181126</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBBF500E-9DB3-4A06-A11E-902D523FA761}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>162076</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3641EA9F-2846-4F6E-85A8-E6D8F3D5E95C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1685925</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>47776</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B75E75E-D502-48E4-BC79-A423B0A0AFBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1374321</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7208</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>151</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84DD7B38-FF5F-41AE-A044-09E810318AB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Tarea 1"/>
+      <sheetName val="Tarea 2"/>
+      <sheetName val="Tarea 3"/>
+      <sheetName val="DATOS"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="25">
+          <cell r="A25">
+            <v>5</v>
+          </cell>
+          <cell r="B25">
+            <v>0.10859946091469597</v>
+          </cell>
+          <cell r="D25">
+            <v>3.9466666666666668</v>
+          </cell>
+          <cell r="E25">
+            <v>6.6673264579999998</v>
+          </cell>
+          <cell r="F25">
+            <v>3.9825584900000024</v>
+          </cell>
+          <cell r="G25">
+            <v>9.7921750000000002E-3</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>20</v>
+          </cell>
+          <cell r="B26">
+            <v>0.1143988204977955</v>
+          </cell>
+          <cell r="D26">
+            <v>15.876666666666667</v>
+          </cell>
+          <cell r="E26">
+            <v>24.65952377</v>
+          </cell>
+          <cell r="F26">
+            <v>11.137876840000004</v>
+          </cell>
+          <cell r="G26">
+            <v>3.9278158000000001E-2</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>40</v>
+          </cell>
+          <cell r="B27">
+            <v>0.10149453374765294</v>
+          </cell>
+          <cell r="D27">
+            <v>32.31</v>
+          </cell>
+          <cell r="E27">
+            <v>46.762663889999999</v>
+          </cell>
+          <cell r="F27">
+            <v>19.088996690000002</v>
+          </cell>
+          <cell r="G27">
+            <v>8.0033702999999998E-2</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>60</v>
+          </cell>
+          <cell r="B28">
+            <v>0.13882974227258382</v>
+          </cell>
+          <cell r="D28">
+            <v>46.64</v>
+          </cell>
+          <cell r="E28">
+            <v>64.841179440000005</v>
+          </cell>
+          <cell r="F28">
+            <v>24.342982789999994</v>
+          </cell>
+          <cell r="G28">
+            <v>0.116149269</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>80</v>
+          </cell>
+          <cell r="B29">
+            <v>0.1671917554775951</v>
+          </cell>
+          <cell r="D29">
+            <v>60.923333333333332</v>
+          </cell>
+          <cell r="E29">
+            <v>74.978118670000001</v>
+          </cell>
+          <cell r="F29">
+            <v>28.695387600000004</v>
+          </cell>
+          <cell r="G29">
+            <v>0.150979892</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>160</v>
+          </cell>
+          <cell r="B30">
+            <v>0.80928529340727451</v>
+          </cell>
+          <cell r="D30">
+            <v>82.876666666666665</v>
+          </cell>
+          <cell r="E30">
+            <v>81.166400749999994</v>
+          </cell>
+          <cell r="F30">
+            <v>34.929952459999996</v>
+          </cell>
+          <cell r="G30">
+            <v>0.21044406500000001</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>240</v>
+          </cell>
+          <cell r="B31">
+            <v>1.7713611457668625</v>
+          </cell>
+          <cell r="D31">
+            <v>82.326666666666668</v>
+          </cell>
+          <cell r="E31">
+            <v>81.082994479999996</v>
+          </cell>
+          <cell r="F31">
+            <v>34.976195309999994</v>
+          </cell>
+          <cell r="G31">
+            <v>0.206448618</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>290</v>
+          </cell>
+          <cell r="B32">
+            <v>2.352322377280339</v>
+          </cell>
+          <cell r="D32">
+            <v>82.913333333333327</v>
+          </cell>
+          <cell r="E32">
+            <v>81.482637650000001</v>
+          </cell>
+          <cell r="F32">
+            <v>35.100367050000003</v>
+          </cell>
+          <cell r="G32">
+            <v>0.21062710400000001</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>340</v>
+          </cell>
+          <cell r="B33">
+            <v>2.9665256325270848</v>
+          </cell>
+          <cell r="D33">
+            <v>82.543333333333337</v>
+          </cell>
+          <cell r="E33">
+            <v>81.057400849999993</v>
+          </cell>
+          <cell r="F33">
+            <v>35.059684300000001</v>
+          </cell>
+          <cell r="G33">
+            <v>0.21034565</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>450</v>
+          </cell>
+          <cell r="B34">
+            <v>4.2729402076329315</v>
+          </cell>
+          <cell r="D34">
+            <v>82.05</v>
+          </cell>
+          <cell r="E34">
+            <v>81.150752580000002</v>
+          </cell>
+          <cell r="F34">
+            <v>36.078192989999998</v>
+          </cell>
+          <cell r="G34">
+            <v>0.20700538800000001</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="H49" t="str">
+            <v>%CPU</v>
+          </cell>
+          <cell r="I49" t="str">
+            <v>%DISCO</v>
+          </cell>
+          <cell r="J49" t="str">
+            <v>%RED</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="F50">
+            <v>5</v>
+          </cell>
+          <cell r="G50">
+            <v>5.9295385666573254E-2</v>
+          </cell>
+          <cell r="H50">
+            <v>5.6199260306771999</v>
+          </cell>
+          <cell r="I50">
+            <v>2.76002654119144</v>
+          </cell>
+          <cell r="J50">
+            <v>1.07568788370789E-2</v>
+          </cell>
+          <cell r="K50">
+            <v>4.3129646350874502</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="F51">
+            <v>28</v>
+          </cell>
+          <cell r="G51">
+            <v>6.5168137130336631E-2</v>
+          </cell>
+          <cell r="H51">
+            <v>31.312960766937998</v>
+          </cell>
+          <cell r="I51">
+            <v>15.378245608264901</v>
+          </cell>
+          <cell r="J51">
+            <v>5.9934903619998495E-2</v>
+          </cell>
+          <cell r="K51">
+            <v>24.030866539965999</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="F52">
+            <v>52</v>
+          </cell>
+          <cell r="G52">
+            <v>7.7049712464856257E-2</v>
+          </cell>
+          <cell r="H52">
+            <v>57.565627143890993</v>
+          </cell>
+          <cell r="I52">
+            <v>28.271307826862003</v>
+          </cell>
+          <cell r="J52">
+            <v>0.11018409726162801</v>
+          </cell>
+          <cell r="K52">
+            <v>44.178253007773897</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="F53">
+            <v>75</v>
+          </cell>
+          <cell r="G53">
+            <v>0.10667130488657316</v>
+          </cell>
+          <cell r="H53">
+            <v>80.989176034528498</v>
+          </cell>
+          <cell r="I53">
+            <v>39.774949738544798</v>
+          </cell>
+          <cell r="J53">
+            <v>0.15501818866703099</v>
+          </cell>
+          <cell r="K53">
+            <v>62.154457221513098</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="F54">
+            <v>99</v>
+          </cell>
+          <cell r="G54">
+            <v>0.22264695891933239</v>
+          </cell>
+          <cell r="H54">
+            <v>97.531737074721505</v>
+          </cell>
+          <cell r="I54">
+            <v>47.899239503389005</v>
+          </cell>
+          <cell r="J54">
+            <v>0.18668165252634</v>
+          </cell>
+          <cell r="K54">
+            <v>74.849905586966102</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="F55">
+            <v>122</v>
+          </cell>
+          <cell r="G55">
+            <v>0.48990244331366567</v>
+          </cell>
+          <cell r="H55">
+            <v>99.987119309266248</v>
+          </cell>
+          <cell r="I55">
+            <v>49.105113050321904</v>
+          </cell>
+          <cell r="J55">
+            <v>0.19138140285250801</v>
+          </cell>
+          <cell r="K55">
+            <v>76.734267887360502</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="F56">
+            <v>146</v>
+          </cell>
+          <cell r="G56">
+            <v>0.80242507332948154</v>
+          </cell>
+          <cell r="H56">
+            <v>99.999999300617247</v>
+          </cell>
+          <cell r="I56">
+            <v>49.1114385994101</v>
+          </cell>
+          <cell r="J56">
+            <v>0.19140605593613</v>
+          </cell>
+          <cell r="K56">
+            <v>76.744152527637596</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="F57">
+            <v>169</v>
+          </cell>
+          <cell r="G57">
+            <v>1.1021221585212555</v>
+          </cell>
+          <cell r="H57">
+            <v>99.999999999997996</v>
+          </cell>
+          <cell r="I57">
+            <v>49.111438942886096</v>
+          </cell>
+          <cell r="J57">
+            <v>0.19140605727478699</v>
+          </cell>
+          <cell r="K57">
+            <v>76.744153064371503</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="F58">
+            <v>192</v>
+          </cell>
+          <cell r="G58">
+            <v>1.4018192570181873</v>
+          </cell>
+          <cell r="H58">
+            <v>100</v>
+          </cell>
+          <cell r="I58">
+            <v>49.111438942886998</v>
+          </cell>
+          <cell r="J58">
+            <v>0.19140605727479101</v>
+          </cell>
+          <cell r="K58">
+            <v>76.744153064372895</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="F59">
+            <v>216</v>
+          </cell>
+          <cell r="G59">
+            <v>1.7145466641454572</v>
+          </cell>
+          <cell r="H59">
+            <v>99.999999999999744</v>
+          </cell>
+          <cell r="I59">
+            <v>49.111438942886998</v>
+          </cell>
+          <cell r="J59">
+            <v>0.19140605727479101</v>
+          </cell>
+          <cell r="K59">
+            <v>76.744153064372895</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="F60">
+            <v>239</v>
+          </cell>
+          <cell r="G60">
+            <v>2.0142437626424274</v>
+          </cell>
+          <cell r="H60">
+            <v>100</v>
+          </cell>
+          <cell r="I60">
+            <v>49.111438942886998</v>
+          </cell>
+          <cell r="J60">
+            <v>0.19140605727479101</v>
+          </cell>
+          <cell r="K60">
+            <v>76.744153064372895</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="F61">
+            <v>263</v>
+          </cell>
+          <cell r="G61">
+            <v>2.3269711697697071</v>
+          </cell>
+          <cell r="H61">
+            <v>100</v>
+          </cell>
+          <cell r="I61">
+            <v>49.111438942886998</v>
+          </cell>
+          <cell r="J61">
+            <v>0.19140605727479101</v>
+          </cell>
+          <cell r="K61">
+            <v>76.744153064372895</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="F62">
+            <v>286</v>
+          </cell>
+          <cell r="G62">
+            <v>2.6266682682666773</v>
+          </cell>
+          <cell r="H62">
+            <v>100</v>
+          </cell>
+          <cell r="I62">
+            <v>49.111438942886998</v>
+          </cell>
+          <cell r="J62">
+            <v>0.19140605727479101</v>
+          </cell>
+          <cell r="K62">
+            <v>76.744153064372895</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="F63">
+            <v>309</v>
+          </cell>
+          <cell r="G63">
+            <v>2.9263653667636471</v>
+          </cell>
+          <cell r="H63">
+            <v>100</v>
+          </cell>
+          <cell r="I63">
+            <v>49.111438942886998</v>
+          </cell>
+          <cell r="J63">
+            <v>0.19140605727479101</v>
+          </cell>
+          <cell r="K63">
+            <v>76.744153064372895</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="F64">
+            <v>333</v>
+          </cell>
+          <cell r="G64">
+            <v>3.2390927738909174</v>
+          </cell>
+          <cell r="H64">
+            <v>100</v>
+          </cell>
+          <cell r="I64">
+            <v>49.111438942886998</v>
+          </cell>
+          <cell r="J64">
+            <v>0.19140605727479101</v>
+          </cell>
+          <cell r="K64">
+            <v>76.744153064372895</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="F65">
+            <v>356</v>
+          </cell>
+          <cell r="G65">
+            <v>3.5387898723878872</v>
+          </cell>
+          <cell r="H65">
+            <v>100</v>
+          </cell>
+          <cell r="I65">
+            <v>49.111438942886998</v>
+          </cell>
+          <cell r="J65">
+            <v>0.19140605727479101</v>
+          </cell>
+          <cell r="K65">
+            <v>76.744153064372895</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="F66">
+            <v>380</v>
+          </cell>
+          <cell r="G66">
+            <v>3.8515172795151673</v>
+          </cell>
+          <cell r="H66">
+            <v>99.999999999999744</v>
+          </cell>
+          <cell r="I66">
+            <v>49.111438942886998</v>
+          </cell>
+          <cell r="J66">
+            <v>0.19140605727479101</v>
+          </cell>
+          <cell r="K66">
+            <v>76.744153064372895</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="F67">
+            <v>403</v>
+          </cell>
+          <cell r="G67">
+            <v>4.1512143780121376</v>
+          </cell>
+          <cell r="H67">
+            <v>100</v>
+          </cell>
+          <cell r="I67">
+            <v>49.111438942886998</v>
+          </cell>
+          <cell r="J67">
+            <v>0.19140605727479101</v>
+          </cell>
+          <cell r="K67">
+            <v>76.744153064372895</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="F68">
+            <v>427</v>
+          </cell>
+          <cell r="G68">
+            <v>4.4639417851394176</v>
+          </cell>
+          <cell r="H68">
+            <v>100</v>
+          </cell>
+          <cell r="I68">
+            <v>49.111438942886998</v>
+          </cell>
+          <cell r="J68">
+            <v>0.19140605727479101</v>
+          </cell>
+          <cell r="K68">
+            <v>76.744153064372895</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="F69">
+            <v>450</v>
+          </cell>
+          <cell r="G69">
+            <v>4.7636388836363874</v>
+          </cell>
+          <cell r="H69">
+            <v>100</v>
+          </cell>
+          <cell r="I69">
+            <v>49.111438942886998</v>
+          </cell>
+          <cell r="J69">
+            <v>0.19140605727479101</v>
+          </cell>
+          <cell r="K69">
+            <v>76.744153064372895</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="JSIMresults" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="JSIMresults" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1400,11 +9289,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2049,6 +9938,469 @@
         <v>0.49259824437292898</v>
       </c>
     </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f>A2</f>
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <f>B2</f>
+        <v>4.2745535469798499</v>
+      </c>
+      <c r="E45">
+        <f>H2*100</f>
+        <v>6.8168977452359103</v>
+      </c>
+      <c r="F45" s="1">
+        <f>G2*100</f>
+        <v>1.07179498377394E-2</v>
+      </c>
+      <c r="G45">
+        <f>I2*100</f>
+        <v>3.3727598827969101</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f t="shared" ref="B46:B64" si="1">A3</f>
+        <v>28</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46:D64" si="2">B3</f>
+        <v>23.693511355532198</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46:E64" si="3">H3*100</f>
+        <v>36.633266674555301</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" ref="F46:F64" si="4">G3*100</f>
+        <v>5.8804589733284805E-2</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ref="G46:G64" si="5">I3*100</f>
+        <v>18.4312829366309</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>42.7231036142649</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="3"/>
+        <v>68.568099396629407</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="4"/>
+        <v>0.106922987806169</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="5"/>
+        <v>33.606123752757597</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>59.090738400185998</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="3"/>
+        <v>93.510836916821503</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="4"/>
+        <v>0.149585312908532</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="5"/>
+        <v>46.613146176876604</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>62.927575354862299</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="3"/>
+        <v>99.959164419734108</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="4"/>
+        <v>0.15586895458490899</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="5"/>
+        <v>48.830514391298799</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>63.322010638607402</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="4"/>
+        <v>0.159028311244582</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="5"/>
+        <v>49.527154646448302</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>63.3792686161487</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="4"/>
+        <v>0.15707609834754299</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="5"/>
+        <v>49.271794763146595</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>62.188474054148102</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="4"/>
+        <v>0.15548067606364599</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="5"/>
+        <v>49.614974789113703</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>62.390367711834102</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="4"/>
+        <v>0.156097177459913</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="5"/>
+        <v>49.161061313761799</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <f t="shared" si="1"/>
+        <v>215</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="2"/>
+        <v>61.990866665084503</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="4"/>
+        <v>0.15572343456622201</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="5"/>
+        <v>49.738899251245002</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f t="shared" si="1"/>
+        <v>239</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>62.388307272250799</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="4"/>
+        <v>0.15423993691451099</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="5"/>
+        <v>49.717835416368999</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f t="shared" si="1"/>
+        <v>262</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="2"/>
+        <v>63.017438118166197</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="4"/>
+        <v>0.155588509042074</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="5"/>
+        <v>49.4729224277092</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f t="shared" si="1"/>
+        <v>286</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="2"/>
+        <v>63.472584245716099</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="4"/>
+        <v>0.158218760296574</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="5"/>
+        <v>49.7363585473284</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f t="shared" si="1"/>
+        <v>309</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="2"/>
+        <v>63.166250938498102</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="4"/>
+        <v>0.15709736882131101</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="5"/>
+        <v>49.699585147199599</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <f t="shared" si="1"/>
+        <v>332</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>62.6818536752914</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="4"/>
+        <v>0.15748063582208199</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="5"/>
+        <v>49.6680663700024</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f t="shared" si="1"/>
+        <v>356</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="2"/>
+        <v>62.647683687931199</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="4"/>
+        <v>0.157957224878781</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="5"/>
+        <v>50.433966354531698</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <f t="shared" si="1"/>
+        <v>379</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="2"/>
+        <v>62.846939805481902</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="4"/>
+        <v>0.15759472955291401</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="5"/>
+        <v>50.346322892327002</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <f t="shared" si="1"/>
+        <v>403</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="2"/>
+        <v>62.216483903426699</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="4"/>
+        <v>0.15528619626009199</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="5"/>
+        <v>50.3425071760199</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <f t="shared" si="1"/>
+        <v>426</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="2"/>
+        <v>63.1499440221844</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="4"/>
+        <v>0.15946154087785899</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="5"/>
+        <v>50.008820559693802</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="2"/>
+        <v>63.007300928121197</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="4"/>
+        <v>0.156569111100435</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="5"/>
+        <v>49.259824437292899</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/sesion6/parte1_pl6.xlsx
+++ b/sesion6/parte1_pl6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/uo282978_uniovi_es/Documents/CESPL/Sesion6/CESPL-main (4)/CESPL-main/sesion6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_962770CC4E6ECEA7D2E2CBEF2854D70AAEB21EFD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54151600-0928-4920-854C-25744C51B10B}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="11_962770CC4E6ECEA7D2E2CBEF2854D70AAEB21EFD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B95ECFDE-9CF7-41C0-AEE1-CFCB9B455E25}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t xml:space="preserve">Number of customers </t>
   </si>
@@ -329,64 +329,64 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.1020037557787056</c:v>
+                  <c:v>7.3492004776529507E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55123354200919483</c:v>
+                  <c:v>7.2253164625243935E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0228114613719317</c:v>
+                  <c:v>9.2641102775786188E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4027356840660663</c:v>
+                  <c:v>0.17600858690195767</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4894554776561781</c:v>
+                  <c:v>0.46980289912011913</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4968618295769289</c:v>
+                  <c:v>0.82471432347939089</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4942887086149415</c:v>
+                  <c:v>1.1689246426399582</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4977045546517733</c:v>
+                  <c:v>1.6004241876213756</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4931715849122171</c:v>
+                  <c:v>1.9709609105120722</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4989462268581122</c:v>
+                  <c:v>2.1717510136862992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4987207535328351</c:v>
+                  <c:v>2.2903527611332284</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4962851093675127</c:v>
+                  <c:v>2.5972881036859383</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4989457730762499</c:v>
+                  <c:v>2.8562318991146385</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4985668251602089</c:v>
+                  <c:v>3.5278606742345717</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4982554700582449</c:v>
+                  <c:v>3.4440376450934305</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5059192357941049</c:v>
+                  <c:v>3.9616467162912947</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5050391762187991</c:v>
+                  <c:v>4.3995434382175773</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5049779337227998</c:v>
+                  <c:v>4.2049292007121322</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5016828210057167</c:v>
+                  <c:v>5.0572444480760748</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.4941639354839333</c:v>
+                  <c:v>4.8000342959218294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1057,64 +1057,64 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.1020037557787056</c:v>
+                  <c:v>7.3492004776529507E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55123354200919483</c:v>
+                  <c:v>7.2253164625243935E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0228114613719317</c:v>
+                  <c:v>9.2641102775786188E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4027356840660663</c:v>
+                  <c:v>0.17600858690195767</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4894554776561781</c:v>
+                  <c:v>0.46980289912011913</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4968618295769289</c:v>
+                  <c:v>0.82471432347939089</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4942887086149415</c:v>
+                  <c:v>1.1689246426399582</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4977045546517733</c:v>
+                  <c:v>1.6004241876213756</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4931715849122171</c:v>
+                  <c:v>1.9709609105120722</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4989462268581122</c:v>
+                  <c:v>2.1717510136862992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4987207535328351</c:v>
+                  <c:v>2.2903527611332284</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4962851093675127</c:v>
+                  <c:v>2.5972881036859383</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4989457730762499</c:v>
+                  <c:v>2.8562318991146385</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4985668251602089</c:v>
+                  <c:v>3.5278606742345717</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4982554700582449</c:v>
+                  <c:v>3.4440376450934305</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5059192357941049</c:v>
+                  <c:v>3.9616467162912947</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5050391762187991</c:v>
+                  <c:v>4.3995434382175773</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5049779337227998</c:v>
+                  <c:v>4.2049292007121322</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5016828210057167</c:v>
+                  <c:v>5.0572444480760748</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.4941639354839333</c:v>
+                  <c:v>4.8000342959218294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8349,15 +8349,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1374321</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>7208</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>211315</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>151</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9290,10 +9290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="B64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9309,7 +9309,7 @@
     <col min="9" max="9" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -9355,8 +9355,8 @@
         <v>8.3354987214846396E-3</v>
       </c>
       <c r="F2" s="1">
-        <f>SUM(G2:I2)</f>
-        <v>0.1020037557787056</v>
+        <f>SUM(C2:E2)</f>
+        <v>7.3492004776529507E-2</v>
       </c>
       <c r="G2" s="1">
         <v>1.07179498377394E-4</v>
@@ -9367,8 +9367,9 @@
       <c r="I2">
         <v>3.3727598827969101E-2</v>
       </c>
+      <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>28</v>
       </c>
@@ -9385,8 +9386,8 @@
         <v>9.3208585018141905E-3</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F21" si="0">SUM(G3:I3)</f>
-        <v>0.55123354200919483</v>
+        <f t="shared" ref="F3:F21" si="0">SUM(C3:E3)</f>
+        <v>7.2253164625243935E-2</v>
       </c>
       <c r="G3" s="1">
         <v>5.8804589733284804E-4</v>
@@ -9397,8 +9398,9 @@
       <c r="I3">
         <v>0.18431282936630899</v>
       </c>
+      <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>51</v>
       </c>
@@ -9416,7 +9418,7 @@
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>1.0228114613719317</v>
+        <v>9.2641102775786188E-2</v>
       </c>
       <c r="G4">
         <v>1.0692298780616901E-3</v>
@@ -9427,8 +9429,9 @@
       <c r="I4">
         <v>0.336061237527576</v>
       </c>
+      <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>75</v>
       </c>
@@ -9446,7 +9449,7 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>1.4027356840660663</v>
+        <v>0.17600858690195767</v>
       </c>
       <c r="G5">
         <v>1.49585312908532E-3</v>
@@ -9457,8 +9460,9 @@
       <c r="I5">
         <v>0.46613146176876602</v>
       </c>
+      <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>98</v>
       </c>
@@ -9476,7 +9480,7 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>1.4894554776561781</v>
+        <v>0.46980289912011913</v>
       </c>
       <c r="G6">
         <v>1.5586895458490899E-3</v>
@@ -9487,8 +9491,9 @@
       <c r="I6">
         <v>0.48830514391298802</v>
       </c>
+      <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>122</v>
       </c>
@@ -9506,7 +9511,7 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>1.4968618295769289</v>
+        <v>0.82471432347939089</v>
       </c>
       <c r="G7">
         <v>1.5902831124458201E-3</v>
@@ -9517,8 +9522,9 @@
       <c r="I7">
         <v>0.49527154646448301</v>
       </c>
+      <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>145</v>
       </c>
@@ -9536,7 +9542,7 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>1.4942887086149415</v>
+        <v>1.1689246426399582</v>
       </c>
       <c r="G8">
         <v>1.57076098347543E-3</v>
@@ -9547,8 +9553,9 @@
       <c r="I8">
         <v>0.49271794763146598</v>
       </c>
+      <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>168</v>
       </c>
@@ -9566,7 +9573,7 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>1.4977045546517733</v>
+        <v>1.6004241876213756</v>
       </c>
       <c r="G9">
         <v>1.55480676063646E-3</v>
@@ -9577,8 +9584,9 @@
       <c r="I9">
         <v>0.49614974789113703</v>
       </c>
+      <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>192</v>
       </c>
@@ -9596,7 +9604,7 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>1.4931715849122171</v>
+        <v>1.9709609105120722</v>
       </c>
       <c r="G10">
         <v>1.56097177459913E-3</v>
@@ -9607,8 +9615,9 @@
       <c r="I10">
         <v>0.491610613137618</v>
       </c>
+      <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>215</v>
       </c>
@@ -9626,7 +9635,7 @@
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>1.4989462268581122</v>
+        <v>2.1717510136862992</v>
       </c>
       <c r="G11">
         <v>1.55723434566222E-3</v>
@@ -9637,8 +9646,9 @@
       <c r="I11">
         <v>0.49738899251245</v>
       </c>
+      <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>239</v>
       </c>
@@ -9656,7 +9666,7 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>1.4987207535328351</v>
+        <v>2.2903527611332284</v>
       </c>
       <c r="G12">
         <v>1.5423993691451099E-3</v>
@@ -9667,8 +9677,9 @@
       <c r="I12">
         <v>0.49717835416369</v>
       </c>
+      <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>262</v>
       </c>
@@ -9686,7 +9697,7 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>1.4962851093675127</v>
+        <v>2.5972881036859383</v>
       </c>
       <c r="G13">
         <v>1.55588509042074E-3</v>
@@ -9697,8 +9708,9 @@
       <c r="I13">
         <v>0.49472922427709198</v>
       </c>
+      <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>286</v>
       </c>
@@ -9716,7 +9728,7 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>1.4989457730762499</v>
+        <v>2.8562318991146385</v>
       </c>
       <c r="G14">
         <v>1.5821876029657399E-3</v>
@@ -9727,8 +9739,9 @@
       <c r="I14">
         <v>0.49736358547328402</v>
       </c>
+      <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>309</v>
       </c>
@@ -9746,7 +9759,7 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>1.4985668251602089</v>
+        <v>3.5278606742345717</v>
       </c>
       <c r="G15">
         <v>1.57097368821311E-3</v>
@@ -9757,8 +9770,9 @@
       <c r="I15">
         <v>0.49699585147199599</v>
       </c>
+      <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>332</v>
       </c>
@@ -9776,7 +9790,7 @@
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>1.4982554700582449</v>
+        <v>3.4440376450934305</v>
       </c>
       <c r="G16">
         <v>1.57480635822082E-3</v>
@@ -9787,8 +9801,9 @@
       <c r="I16">
         <v>0.49668066370002401</v>
       </c>
+      <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>356</v>
       </c>
@@ -9806,7 +9821,7 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>1.5059192357941049</v>
+        <v>3.9616467162912947</v>
       </c>
       <c r="G17">
         <v>1.57957224878781E-3</v>
@@ -9817,8 +9832,9 @@
       <c r="I17">
         <v>0.50433966354531701</v>
       </c>
+      <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>379</v>
       </c>
@@ -9836,7 +9852,7 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>1.5050391762187991</v>
+        <v>4.3995434382175773</v>
       </c>
       <c r="G18">
         <v>1.5759472955291401E-3</v>
@@ -9847,8 +9863,9 @@
       <c r="I18">
         <v>0.50346322892327</v>
       </c>
+      <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>403</v>
       </c>
@@ -9866,7 +9883,7 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>1.5049779337227998</v>
+        <v>4.2049292007121322</v>
       </c>
       <c r="G19">
         <v>1.55286196260092E-3</v>
@@ -9877,8 +9894,9 @@
       <c r="I19">
         <v>0.50342507176019902</v>
       </c>
+      <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>426</v>
       </c>
@@ -9896,7 +9914,7 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>1.5016828210057167</v>
+        <v>5.0572444480760748</v>
       </c>
       <c r="G20">
         <v>1.5946154087785899E-3</v>
@@ -9907,8 +9925,9 @@
       <c r="I20">
         <v>0.50008820559693801</v>
       </c>
+      <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>450</v>
       </c>
@@ -9926,7 +9945,7 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>1.4941639354839333</v>
+        <v>4.8000342959218294</v>
       </c>
       <c r="G21">
         <v>1.5656911110043499E-3</v>
@@ -9936,6 +9955,17 @@
       </c>
       <c r="I21">
         <v>0.49259824437292898</v>
+      </c>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
@@ -9943,7 +9973,7 @@
         <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
         <v>11</v>
@@ -9963,8 +9993,8 @@
         <f>A2</f>
         <v>5</v>
       </c>
-      <c r="C45" t="s">
-        <v>15</v>
+      <c r="C45">
+        <v>7.3492004776529507E-2</v>
       </c>
       <c r="D45">
         <f>B2</f>
@@ -9988,6 +10018,9 @@
         <f t="shared" ref="B46:B64" si="1">A3</f>
         <v>28</v>
       </c>
+      <c r="C46">
+        <v>7.2253164625243935E-2</v>
+      </c>
       <c r="D46">
         <f t="shared" ref="D46:D64" si="2">B3</f>
         <v>23.693511355532198</v>
@@ -10010,6 +10043,9 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
+      <c r="C47">
+        <v>9.2641102775786188E-2</v>
+      </c>
       <c r="D47">
         <f t="shared" si="2"/>
         <v>42.7231036142649</v>
@@ -10032,6 +10068,9 @@
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
+      <c r="C48">
+        <v>0.17600858690195767</v>
+      </c>
       <c r="D48">
         <f t="shared" si="2"/>
         <v>59.090738400185998</v>
@@ -10054,6 +10093,9 @@
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
+      <c r="C49">
+        <v>0.46980289912011913</v>
+      </c>
       <c r="D49">
         <f t="shared" si="2"/>
         <v>62.927575354862299</v>
@@ -10076,6 +10118,9 @@
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
+      <c r="C50">
+        <v>0.82471432347939089</v>
+      </c>
       <c r="D50">
         <f t="shared" si="2"/>
         <v>63.322010638607402</v>
@@ -10098,6 +10143,9 @@
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
+      <c r="C51">
+        <v>1.1689246426399582</v>
+      </c>
       <c r="D51">
         <f t="shared" si="2"/>
         <v>63.3792686161487</v>
@@ -10120,6 +10168,9 @@
         <f t="shared" si="1"/>
         <v>168</v>
       </c>
+      <c r="C52">
+        <v>1.6004241876213756</v>
+      </c>
       <c r="D52">
         <f t="shared" si="2"/>
         <v>62.188474054148102</v>
@@ -10142,6 +10193,9 @@
         <f t="shared" si="1"/>
         <v>192</v>
       </c>
+      <c r="C53">
+        <v>1.9709609105120722</v>
+      </c>
       <c r="D53">
         <f t="shared" si="2"/>
         <v>62.390367711834102</v>
@@ -10164,6 +10218,9 @@
         <f t="shared" si="1"/>
         <v>215</v>
       </c>
+      <c r="C54">
+        <v>2.1717510136862992</v>
+      </c>
       <c r="D54">
         <f t="shared" si="2"/>
         <v>61.990866665084503</v>
@@ -10186,6 +10243,9 @@
         <f t="shared" si="1"/>
         <v>239</v>
       </c>
+      <c r="C55">
+        <v>2.2903527611332284</v>
+      </c>
       <c r="D55">
         <f t="shared" si="2"/>
         <v>62.388307272250799</v>
@@ -10208,6 +10268,9 @@
         <f t="shared" si="1"/>
         <v>262</v>
       </c>
+      <c r="C56">
+        <v>2.5972881036859383</v>
+      </c>
       <c r="D56">
         <f t="shared" si="2"/>
         <v>63.017438118166197</v>
@@ -10230,6 +10293,9 @@
         <f t="shared" si="1"/>
         <v>286</v>
       </c>
+      <c r="C57">
+        <v>2.8562318991146385</v>
+      </c>
       <c r="D57">
         <f t="shared" si="2"/>
         <v>63.472584245716099</v>
@@ -10252,6 +10318,9 @@
         <f t="shared" si="1"/>
         <v>309</v>
       </c>
+      <c r="C58">
+        <v>3.5278606742345717</v>
+      </c>
       <c r="D58">
         <f t="shared" si="2"/>
         <v>63.166250938498102</v>
@@ -10274,6 +10343,9 @@
         <f t="shared" si="1"/>
         <v>332</v>
       </c>
+      <c r="C59">
+        <v>3.4440376450934305</v>
+      </c>
       <c r="D59">
         <f t="shared" si="2"/>
         <v>62.6818536752914</v>
@@ -10296,6 +10368,9 @@
         <f t="shared" si="1"/>
         <v>356</v>
       </c>
+      <c r="C60">
+        <v>3.9616467162912947</v>
+      </c>
       <c r="D60">
         <f t="shared" si="2"/>
         <v>62.647683687931199</v>
@@ -10318,6 +10393,9 @@
         <f t="shared" si="1"/>
         <v>379</v>
       </c>
+      <c r="C61">
+        <v>4.3995434382175773</v>
+      </c>
       <c r="D61">
         <f t="shared" si="2"/>
         <v>62.846939805481902</v>
@@ -10340,6 +10418,9 @@
         <f t="shared" si="1"/>
         <v>403</v>
       </c>
+      <c r="C62">
+        <v>4.2049292007121322</v>
+      </c>
       <c r="D62">
         <f t="shared" si="2"/>
         <v>62.216483903426699</v>
@@ -10362,6 +10443,9 @@
         <f t="shared" si="1"/>
         <v>426</v>
       </c>
+      <c r="C63">
+        <v>5.0572444480760748</v>
+      </c>
       <c r="D63">
         <f t="shared" si="2"/>
         <v>63.1499440221844</v>
@@ -10383,6 +10467,9 @@
       <c r="B64">
         <f t="shared" si="1"/>
         <v>450</v>
+      </c>
+      <c r="C64">
+        <v>4.8000342959218294</v>
       </c>
       <c r="D64">
         <f t="shared" si="2"/>

--- a/sesion6/parte1_pl6.xlsx
+++ b/sesion6/parte1_pl6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/uo282978_uniovi_es/Documents/CESPL/Sesion6/CESPL-main (4)/CESPL-main/sesion6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="11_962770CC4E6ECEA7D2E2CBEF2854D70AAEB21EFD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B95ECFDE-9CF7-41C0-AEE1-CFCB9B455E25}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="11_962770CC4E6ECEA7D2E2CBEF2854D70AAEB21EFD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47649CBB-0F53-42D4-9B56-0C8F7AFBB8A4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,6 +413,7 @@
         <c:axId val="692871632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="450"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2585,7 +2586,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0" formatCode="0.00">
+                <c:pt idx="0">
                   <c:v>3.9825584900000024</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -4508,6 +4509,7 @@
         <c:axId val="982280816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="450"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -9292,8 +9294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
